--- a/suppxls/Scen_demo_FillTabledemo.xlsx
+++ b/suppxls/Scen_demo_FillTabledemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26265182-F2B8-4C1A-A2C1-3755A58F722D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C248FD-5EE2-43CA-AB46-47F512008A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>

--- a/suppxls/Scen_demo_FillTabledemo.xlsx
+++ b/suppxls/Scen_demo_FillTabledemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C248FD-5EE2-43CA-AB46-47F512008A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D282AF-908D-44F9-872A-5875B2AC82AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="1875" windowWidth="15825" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>

--- a/suppxls/Scen_demo_FillTabledemo.xlsx
+++ b/suppxls/Scen_demo_FillTabledemo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D282AF-908D-44F9-872A-5875B2AC82AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EADE4FF-F371-4E3B-A3A8-6FD23D6E3DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="1875" windowWidth="15825" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>

--- a/suppxls/Scen_demo_FillTabledemo.xlsx
+++ b/suppxls/Scen_demo_FillTabledemo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EADE4FF-F371-4E3B-A3A8-6FD23D6E3DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC6270-D8AB-4F50-A3C2-0CF1D565B8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="H10">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1404,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="H11">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1773,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="H20">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="H21">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
